--- a/benchmarking_v256.xlsx
+++ b/benchmarking_v256.xlsx
@@ -6,10 +6,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pablo\Desktop\PhD\Programming\chacha20-vectorized\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pablo\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F6693A6-0F8F-4139-A65C-4EE36554A9A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A34D766E-370D-4C6C-8156-3522D2A8123C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{A05CAA3B-B315-4F13-A821-C15D8240EFCC}"/>
   </bookViews>
@@ -159,7 +159,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -171,10 +171,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -514,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05717103-B575-4F64-84DF-D9BE27D76EC6}">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -527,7 +523,7 @@
     <col min="6" max="6" width="10.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -547,268 +543,263 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="3">
-        <v>124.75</v>
+        <v>101</v>
       </c>
       <c r="C2" s="3">
-        <v>17.25</v>
+        <v>11.38</v>
       </c>
       <c r="D2" s="3">
-        <v>6.54</v>
+        <v>4.87</v>
       </c>
       <c r="E2" s="3">
-        <v>6.03</v>
+        <v>4.03</v>
       </c>
       <c r="F2" s="3">
-        <v>11.12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+        <v>3.72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="3">
-        <v>179</v>
+        <v>268</v>
       </c>
       <c r="C3" s="3">
-        <v>9.5</v>
+        <v>14.13</v>
       </c>
       <c r="D3" s="3">
-        <v>6.52</v>
+        <v>62.15</v>
       </c>
       <c r="E3" s="3">
-        <v>5.94</v>
+        <v>7.02</v>
       </c>
       <c r="F3" s="3">
-        <v>6.33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+        <v>5.42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="3">
-        <v>224.5</v>
+        <v>199.5</v>
       </c>
       <c r="C4" s="3">
-        <v>17.190000000000001</v>
+        <v>23.41</v>
       </c>
       <c r="D4" s="3">
-        <v>12.02</v>
+        <v>271.76</v>
       </c>
       <c r="E4" s="3">
-        <v>10.64</v>
+        <v>5.43</v>
       </c>
       <c r="F4" s="3">
-        <v>7.99</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+        <v>4.6500000000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="3">
-        <v>28.25</v>
+        <v>126.5</v>
       </c>
       <c r="C5" s="3">
-        <v>14.88</v>
+        <v>20.22</v>
       </c>
       <c r="D5" s="3">
-        <v>10.07</v>
+        <v>7</v>
       </c>
       <c r="E5" s="3">
-        <v>9.81</v>
+        <v>5.51</v>
       </c>
       <c r="F5" s="3">
-        <v>13.97</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+        <v>4.26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="3">
-        <v>397.25</v>
+        <v>131.25</v>
       </c>
       <c r="C6" s="3">
-        <v>29.97</v>
+        <v>16.53</v>
       </c>
       <c r="D6" s="3">
-        <v>17.899999999999999</v>
+        <v>6.28</v>
       </c>
       <c r="E6" s="3">
-        <v>16.329999999999998</v>
+        <v>5.44</v>
       </c>
       <c r="F6" s="3">
-        <v>15.95</v>
-      </c>
-      <c r="H6" s="5"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+        <v>5.07</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="3">
-        <v>232</v>
+        <v>259</v>
       </c>
       <c r="C7" s="3">
-        <v>17.78</v>
+        <v>31.72</v>
       </c>
       <c r="D7" s="3">
-        <v>11.57</v>
+        <v>12.77</v>
       </c>
       <c r="E7" s="3">
-        <v>10.78</v>
+        <v>10.210000000000001</v>
       </c>
       <c r="F7" s="3">
-        <v>10.88</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+        <v>8.31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="3">
-        <v>222</v>
+        <v>342</v>
       </c>
       <c r="C8" s="3">
-        <v>15.13</v>
+        <v>43.63</v>
       </c>
       <c r="D8" s="3">
-        <v>9.27</v>
+        <v>16.559999999999999</v>
       </c>
       <c r="E8" s="3">
-        <v>8.4499999999999993</v>
+        <v>14.13</v>
       </c>
       <c r="F8" s="3">
-        <v>8.11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+        <v>13.26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="3">
-        <v>1092.5</v>
+        <v>116.75</v>
       </c>
       <c r="C9" s="3">
-        <v>10.31</v>
+        <v>15.69</v>
       </c>
       <c r="D9" s="3">
-        <v>6.39</v>
+        <v>5.68</v>
       </c>
       <c r="E9" s="3">
-        <v>6.09</v>
+        <v>4.84</v>
       </c>
       <c r="F9" s="3">
-        <v>5.99</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+        <v>4.59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B10" s="3">
-        <v>216.5</v>
+        <v>119.75</v>
       </c>
       <c r="C10" s="3">
-        <v>114</v>
+        <v>12.91</v>
       </c>
       <c r="D10" s="3">
-        <v>12.37</v>
+        <v>5.39</v>
       </c>
       <c r="E10" s="3">
-        <v>11.66</v>
+        <v>4.49</v>
       </c>
       <c r="F10" s="3">
-        <v>12.15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+        <v>4.38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="3">
-        <v>199.75</v>
+        <v>97.25</v>
       </c>
       <c r="C11" s="3">
-        <v>16.190000000000001</v>
+        <v>20.72</v>
       </c>
       <c r="D11" s="3">
-        <v>9.7100000000000009</v>
+        <v>8.43</v>
       </c>
       <c r="E11" s="3">
-        <v>8.44</v>
+        <v>6.61</v>
       </c>
       <c r="F11" s="3">
-        <v>8.2899999999999991</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+        <v>5.47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A13" s="7" t="s">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B13" s="3">
         <f>MEDIAN(B2:B11)</f>
-        <v>219.25</v>
+        <v>128.875</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ref="C13:F13" si="0">MEDIAN(C2:C11)</f>
-        <v>16.690000000000001</v>
+        <v>18.375</v>
       </c>
       <c r="D13" s="3">
         <f t="shared" si="0"/>
-        <v>9.89</v>
+        <v>7.7149999999999999</v>
       </c>
       <c r="E13" s="3">
         <f t="shared" si="0"/>
-        <v>9.129999999999999</v>
+        <v>5.4749999999999996</v>
       </c>
       <c r="F13" s="3">
         <f t="shared" si="0"/>
-        <v>9.5850000000000009</v>
-      </c>
-      <c r="K13" s="5"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A14" s="7" t="s">
+        <v>4.8600000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B14" s="4">
         <f>GEOMEAN(B2:B11)</f>
-        <v>205.89222089335581</v>
+        <v>159.71057736451041</v>
       </c>
       <c r="C14" s="4">
         <f t="shared" ref="C14:F14" si="1">GEOMEAN(C2:C11)</f>
-        <v>19.090879242334413</v>
+        <v>19.336582353416802</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" si="1"/>
-        <v>9.7299704072163813</v>
+        <v>13.474818424463308</v>
       </c>
       <c r="E14" s="4">
         <f t="shared" si="1"/>
-        <v>8.9594929830167889</v>
+        <v>6.2800825903259261</v>
       </c>
       <c r="F14" s="4">
         <f t="shared" si="1"/>
-        <v>9.6033327029603655</v>
-      </c>
-    </row>
-    <row r="18" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J18" s="5"/>
+        <v>5.4825568136002731</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
